--- a/Urls_Int.xlsx
+++ b/Urls_Int.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8E735-BC3C-4E98-8CC6-F02D39EC6F9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,18 +20,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>http://pp.avacon-netz.de/registrieren</t>
-  </si>
-  <si>
-    <t>http://pp.bayernwerk-netz.de/registrieren</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>http://int.avacon-netz.de/passwort-vergessen</t>
+  </si>
+  <si>
+    <t>http://int.bayernwerk-netz.de/passwort-vergessen</t>
+  </si>
+  <si>
+    <t>http://int.sh-netz.com/passwort-vergessen</t>
+  </si>
+  <si>
+    <t>http://int.e-dis-netz.de/passwort-vergessen</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-schaafheim.com/passwort-vergessen</t>
+  </si>
+  <si>
+    <t>http://int.hansegas.com/passwort-vergessen</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-bayern.com/passwort-vergessen</t>
+  </si>
+  <si>
+    <t>http://int.gasnetz-hamburg.de/passwort-vergessen</t>
+  </si>
+  <si>
+    <t>http://int.energieversorgung-putzbrunn.de/passwort-vergessen</t>
+  </si>
+  <si>
+    <t>http://int.nordnetz.com/passwort-vergessen</t>
+  </si>
+  <si>
+    <t>http://int.avacon-hochdrucknetz.de/passwort-vergessen</t>
+  </si>
+  <si>
+    <t>http://int.avacon-netz.de/registrieren</t>
+  </si>
+  <si>
+    <t>http://int.bayernwerk-netz.de/registrieren</t>
+  </si>
+  <si>
+    <t>http://int.sh-netz.com/registrieren</t>
+  </si>
+  <si>
+    <t>http://int.e-dis-netz.de/registrieren</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-schaafheim.com/registrieren</t>
+  </si>
+  <si>
+    <t>http://int.hansegas.com/registrieren</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-bayern.com/registrieren</t>
+  </si>
+  <si>
+    <t>http://int.gasnetz-hamburg.de/registrieren</t>
+  </si>
+  <si>
+    <t>http://int.energieversorgung-putzbrunn.de/registrieren</t>
+  </si>
+  <si>
+    <t>http://int.nordnetz.com/registrieren</t>
+  </si>
+  <si>
+    <t>http://int.avacon-hochdrucknetz.de/registrieren</t>
+  </si>
+  <si>
+    <t>http://int.avacon-netz.de/gastzugang</t>
+  </si>
+  <si>
+    <t>http://int.bayernwerk-netz.de/gastzugang</t>
+  </si>
+  <si>
+    <t>http://int.sh-netz.com/gastzugang</t>
+  </si>
+  <si>
+    <t>http://int.e-dis-netz.de/gastzugang</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-schaafheim.com/gastzugang</t>
+  </si>
+  <si>
+    <t>http://int.hansegas.com/gastzugang</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-bayern.com/gastzugang</t>
+  </si>
+  <si>
+    <t>http://int.gasnetz-hamburg.de/gastzugang</t>
+  </si>
+  <si>
+    <t>http://int.energieversorgung-putzbrunn.de/gastzugang</t>
+  </si>
+  <si>
+    <t>http://int.nordnetz.com/gastzugang</t>
+  </si>
+  <si>
+    <t>http://int.avacon-hochdrucknetz.de/gastzugang</t>
+  </si>
+  <si>
+    <t>http://int.avacon-netz.de/login</t>
+  </si>
+  <si>
+    <t>http://int.bayernwerk-netz.de/login</t>
+  </si>
+  <si>
+    <t>http://int.sh-netz.com/login</t>
+  </si>
+  <si>
+    <t>http://int.e-dis-netz.de/login</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-schaafheim.com/login</t>
+  </si>
+  <si>
+    <t>http://int.hansegas.com/login</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-bayern.com/login</t>
+  </si>
+  <si>
+    <t>http://int.gasnetz-hamburg.de/login</t>
+  </si>
+  <si>
+    <t>http://int.energieversorgung-putzbrunn.de/login</t>
+  </si>
+  <si>
+    <t>http://int.nordnetz.com/login</t>
+  </si>
+  <si>
+    <t>http://int.avacon-hochdrucknetz.de/login</t>
+  </si>
+  <si>
+    <t>http://int.avacon-netz.de/kundenportal</t>
+  </si>
+  <si>
+    <t>http://int.bayernwerk-netz.de/kundenportal</t>
+  </si>
+  <si>
+    <t>http://int.sh-netz.com/kundenportal</t>
+  </si>
+  <si>
+    <t>http://int.e-dis-netz.de/kundenportal</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-schaafheim.com/kundenportal</t>
+  </si>
+  <si>
+    <t>http://int.hansegas.com/kundenportal</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-bayern.com/kundenportal</t>
+  </si>
+  <si>
+    <t>http://int.gasnetz-hamburg.de/kundenportal</t>
+  </si>
+  <si>
+    <t>http://int.energieversorgung-putzbrunn.de/kundenportal</t>
+  </si>
+  <si>
+    <t>http://int.nordnetz.com/kundenportal</t>
+  </si>
+  <si>
+    <t>http://int.avacon-hochdrucknetz.de/kundenportal</t>
+  </si>
+  <si>
+    <t>http://int.avacon-netz.de/kundenportal_faq</t>
+  </si>
+  <si>
+    <t>http://int.bayernwerk-netz.de/kundenportal_faq</t>
+  </si>
+  <si>
+    <t>http://int.sh-netz.com/kundenportal_faq</t>
+  </si>
+  <si>
+    <t>http://int.e-dis-netz.de/kundenportal_faq</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-schaafheim.com/kundenportal_faq</t>
+  </si>
+  <si>
+    <t>http://int.hansegas.com/kundenportal_faq</t>
+  </si>
+  <si>
+    <t>http://int.energienetze-bayern.com/kundenportal_faq</t>
+  </si>
+  <si>
+    <t>http://int.gasnetz-hamburg.de/kundenportal_faq</t>
+  </si>
+  <si>
+    <t>http://int.energieversorgung-putzbrunn.de/kundenportal_faq</t>
+  </si>
+  <si>
+    <t>http://int.nordnetz.com/kundenportal_faq</t>
+  </si>
+  <si>
+    <t>http://int.avacon-hochdrucknetz.de/kundenportal_faq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,29 +534,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="58.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>